--- a/results/Mk1_steady_state/keff.xlsx
+++ b/results/Mk1_steady_state/keff.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>keff comsol</t>
   </si>
@@ -35,37 +35,22 @@
     <t>rod position</t>
   </si>
   <si>
-    <t>top(530cm)</t>
+    <t>relative error</t>
   </si>
   <si>
-    <t>middle(272cm)</t>
+    <t>keff-ref(comsol)</t>
   </si>
   <si>
-    <t>down(112cm)</t>
-  </si>
-  <si>
-    <t>top-down</t>
-  </si>
-  <si>
-    <t>top-middle</t>
-  </si>
-  <si>
-    <t>middle-down</t>
-  </si>
-  <si>
-    <t>delta k comsol</t>
-  </si>
-  <si>
-    <t>delta k serpent</t>
-  </si>
-  <si>
-    <t>relative error</t>
+    <t>keff-ref(serpent)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,9 +80,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -115,6 +106,1014 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8.6690000000000045E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.3408971862983092E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3996635105746353E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3996635105746353E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-8.6390000000000078E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.8260999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2059999999999977E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.8439999999999919E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214915600"/>
+        <c:axId val="214920496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214915600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214920496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214920496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214915600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,21 +1379,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -404,144 +1404,139 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.94967000000000001</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.96716000000000002</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>112</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.82899</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.84216999999999997</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2-$B$4</f>
+        <v>-8.6690000000000045E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2-C$4</f>
+        <v>-8.6390000000000078E-2</v>
+      </c>
+      <c r="F2">
+        <f>(E2-D2)/E2</f>
+        <v>-3.4726241463128452E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3">
+        <f>1/1.1464326657</f>
+        <v>0.87227102813701696</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.88029900000000005</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D6" si="0">B3-$B$4</f>
+        <v>-4.3408971862983092E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E6" si="1">C3-C$4</f>
+        <v>-4.8260999999999998E-2</v>
+      </c>
+      <c r="F3">
+        <f>(E3-D3)/E3</f>
+        <v>0.10053724823391363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>272</v>
+      </c>
+      <c r="B4" s="3">
         <v>0.91568000000000005</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="3">
         <v>0.92856000000000005</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.82899</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.84216999999999997</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>430</v>
+      </c>
+      <c r="B5" s="3">
+        <f>1/1.05299</f>
+        <v>0.9496766351057464</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.96062000000000003</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3996635105746353E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2059999999999977E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F6" si="2">(E5-D5)/E5</f>
+        <v>-6.0406584708246329E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <f>B2-B4</f>
-        <v>0.12068000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <f>C2-C4</f>
-        <v>0.12499000000000005</v>
-      </c>
-      <c r="D8" s="1">
-        <f>(B8-C8)/C8</f>
-        <v>-3.4482758620689932E-2</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <f>B2-B3</f>
-        <v>3.3989999999999965E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <f>C2-C3</f>
-        <v>3.8599999999999968E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ref="D9:D10" si="0">(B9-C9)/C9</f>
-        <v>-0.11943005181347167</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <f>B3-B4</f>
-        <v>8.6690000000000045E-2</v>
-      </c>
-      <c r="C10" s="1">
-        <f>C3-C4</f>
-        <v>8.6390000000000078E-2</v>
-      </c>
-      <c r="D10" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>570</v>
+      </c>
+      <c r="B6" s="1">
+        <f>1/1.05299</f>
+        <v>0.9496766351057464</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>3.4726241463128452E-3</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+        <v>3.3996635105746353E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8439999999999919E-2</v>
+      </c>
+      <c r="F6">
+        <f>(E6-D6)/E6</f>
+        <v>0.11559221889317312</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C7">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>